--- a/intento_3.xlsx
+++ b/intento_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanfelipequiroga/Documents/G22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A603950E-594F-7E40-85BD-A2AD3157551B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C690A8BD-5465-A147-9046-B606D025B686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16320" xr2:uid="{4D4648A9-255A-474C-93FB-3102981F2CF2}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -417,7 +417,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>4.9835579999999999E-3</v>
+        <v>1.507644E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -425,7 +425,7 @@
         <v>3.3333330000000001E-2</v>
       </c>
       <c r="B3" s="1">
-        <v>7.140764E-3</v>
+        <v>1.9421110000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -433,7 +433,7 @@
         <v>6.6666669999999997E-2</v>
       </c>
       <c r="B4" s="1">
-        <v>1.1102519999999999E-2</v>
+        <v>2.7452090000000002E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -441,7 +441,7 @@
         <v>0.1</v>
       </c>
       <c r="B5" s="1">
-        <v>1.669911E-2</v>
+        <v>3.8695800000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -449,7 +449,7 @@
         <v>0.13333329999999999</v>
       </c>
       <c r="B6" s="1">
-        <v>2.4441600000000001E-2</v>
+        <v>5.4282260000000004E-3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -457,7 +457,7 @@
         <v>0.1666667</v>
       </c>
       <c r="B7" s="1">
-        <v>3.5603099999999999E-2</v>
+        <v>7.6906559999999997E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -465,7 +465,7 @@
         <v>0.2</v>
       </c>
       <c r="B8" s="1">
-        <v>5.1399689999999998E-2</v>
+        <v>1.088446E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -473,7 +473,7 @@
         <v>0.23333329999999999</v>
       </c>
       <c r="B9" s="1">
-        <v>7.3154810000000001E-2</v>
+        <v>1.528026E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -481,7 +481,7 @@
         <v>0.26666669999999998</v>
       </c>
       <c r="B10" s="1">
-        <v>9.8345699999999994E-2</v>
+        <v>2.0369680000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -489,7 +489,7 @@
         <v>0.3</v>
       </c>
       <c r="B11" s="1">
-        <v>0.1283898</v>
+        <v>2.6438969999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -497,7 +497,7 @@
         <v>0.3333333</v>
       </c>
       <c r="B12" s="1">
-        <v>0.16409099999999999</v>
+        <v>3.3646839999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -505,7 +505,7 @@
         <v>0.36666670000000001</v>
       </c>
       <c r="B13" s="1">
-        <v>0.20438809999999999</v>
+        <v>4.1817439999999997E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -513,7 +513,7 @@
         <v>0.4</v>
       </c>
       <c r="B14" s="1">
-        <v>0.2504479</v>
+        <v>5.1111110000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -521,7 +521,7 @@
         <v>0.43333329999999998</v>
       </c>
       <c r="B15" s="1">
-        <v>0.30204550000000002</v>
+        <v>6.1533980000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -529,7 +529,7 @@
         <v>0.46666669999999999</v>
       </c>
       <c r="B16" s="1">
-        <v>0.3577071</v>
+        <v>7.2784360000000006E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -537,7 +537,7 @@
         <v>0.5</v>
       </c>
       <c r="B17" s="1">
-        <v>0.41714099999999998</v>
+        <v>8.4766859999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -545,7 +545,7 @@
         <v>0.53333330000000001</v>
       </c>
       <c r="B18" s="1">
-        <v>0.4830644</v>
+        <v>9.8097950000000003E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -553,7 +553,7 @@
         <v>0.56666669999999997</v>
       </c>
       <c r="B19" s="1">
-        <v>0.55436090000000005</v>
+        <v>0.1124822</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -561,7 +561,7 @@
         <v>0.6</v>
       </c>
       <c r="B20" s="1">
-        <v>0.62975979999999998</v>
+        <v>0.1277288</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -569,7 +569,7 @@
         <v>0.63333329999999999</v>
       </c>
       <c r="B21" s="1">
-        <v>0.7114009</v>
+        <v>0.14419319999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -577,7 +577,7 @@
         <v>0.66666669999999995</v>
       </c>
       <c r="B22" s="1">
-        <v>0.79728379999999999</v>
+        <v>0.16158819999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -585,7 +585,7 @@
         <v>0.7</v>
       </c>
       <c r="B23" s="1">
-        <v>0.88820659999999996</v>
+        <v>0.17993239999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -593,7 +593,7 @@
         <v>0.73333329999999997</v>
       </c>
       <c r="B24" s="1">
-        <v>0.98277400000000004</v>
+        <v>0.19908290000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -601,7 +601,7 @@
         <v>0.76666670000000003</v>
       </c>
       <c r="B25" s="1">
-        <v>1.0835090000000001</v>
+        <v>0.21941260000000001</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -609,7 +609,7 @@
         <v>0.8</v>
       </c>
       <c r="B26" s="1">
-        <v>1.1883870000000001</v>
+        <v>0.24058930000000001</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -617,7 +617,7 @@
         <v>0.83333330000000005</v>
       </c>
       <c r="B27" s="1">
-        <v>1.295992</v>
+        <v>0.26229170000000002</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -625,7 +625,7 @@
         <v>0.86666670000000001</v>
       </c>
       <c r="B28" s="1">
-        <v>1.4075759999999999</v>
+        <v>0.28507969999999999</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -633,7 +633,7 @@
         <v>0.9</v>
       </c>
       <c r="B29" s="1">
-        <v>1.5364089999999999</v>
+        <v>0.30898710000000001</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -641,7 +641,7 @@
         <v>0.93333330000000003</v>
       </c>
       <c r="B30" s="1">
-        <v>1.653546</v>
+        <v>0.33327099999999998</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -649,7 +649,7 @@
         <v>0.96666669999999999</v>
       </c>
       <c r="B31" s="1">
-        <v>1.785272</v>
+        <v>0.35842580000000002</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="1">
-        <v>1.9072009999999999</v>
+        <v>0.38453959999999998</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -665,7 +665,7 @@
         <v>1.0333330000000001</v>
       </c>
       <c r="B33" s="1">
-        <v>2.0437609999999999</v>
+        <v>0.41166700000000001</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -673,7 +673,7 @@
         <v>1.066667</v>
       </c>
       <c r="B34" s="1">
-        <v>2.1802790000000001</v>
+        <v>0.43974819999999998</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -681,7 +681,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B35" s="1">
-        <v>2.3315549999999998</v>
+        <v>0.46896939999999998</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -689,7 +689,7 @@
         <v>1.1333329999999999</v>
       </c>
       <c r="B36" s="1">
-        <v>2.466412</v>
+        <v>0.4986852</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
         <v>1.1666669999999999</v>
       </c>
       <c r="B37" s="1">
-        <v>2.6189819999999999</v>
+        <v>0.52992399999999995</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -705,7 +705,7 @@
         <v>1.2</v>
       </c>
       <c r="B38" s="1">
-        <v>2.7771599999999999</v>
+        <v>0.56187589999999998</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -713,7 +713,7 @@
         <v>1.233333</v>
       </c>
       <c r="B39" s="1">
-        <v>2.9408620000000001</v>
+        <v>0.59511190000000003</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -721,7 +721,7 @@
         <v>1.266667</v>
       </c>
       <c r="B40" s="1">
-        <v>3.1081509999999999</v>
+        <v>0.62872130000000004</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -729,7 +729,7 @@
         <v>1.3</v>
       </c>
       <c r="B41" s="1">
-        <v>3.2779210000000001</v>
+        <v>0.66250889999999996</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -737,7 +737,7 @@
         <v>1.3333330000000001</v>
       </c>
       <c r="B42" s="1">
-        <v>3.3754360000000001</v>
+        <v>0.67830599999999996</v>
       </c>
     </row>
   </sheetData>
